--- a/files/xlsx/Пассажиропотоки по городам 2019.xlsx
+++ b/files/xlsx/Пассажиропотоки по городам 2019.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotlyarov_m\Documents\MK\Dates\2024\202405\20240504\MAL\files\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB0FE30-3533-4B8B-AC27-33AFBBB24573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9E4030-0363-40AB-9BBF-E4FB6501DE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="19" sheetId="6" r:id="rId1"/>
+    <sheet name="Пассажиропоток" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -778,10 +778,10 @@
     <t>Аэропорт</t>
   </si>
   <si>
-    <t>Пассажиры 2019</t>
-  </si>
-  <si>
-    <t>Груз 2019</t>
+    <t>Пассажиропоток</t>
+  </si>
+  <si>
+    <t>Грузопоток</t>
   </si>
 </sst>
 </file>
@@ -949,8 +949,8 @@
   <autoFilter ref="A1:C252" xr:uid="{0C87E0FB-3070-4D4B-832B-78F6C9924B13}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F3B966FC-1300-49C9-A449-9ECEE25EA89A}" name="Аэропорт" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{12A0F66F-0FAC-45C7-82F1-412AC2A939FA}" name="Пассажиры 2019" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{AC5C619E-5336-4DBF-87DB-34588281B70F}" name="Груз 2019" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{12A0F66F-0FAC-45C7-82F1-412AC2A939FA}" name="Пассажиропоток" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{AC5C619E-5336-4DBF-87DB-34588281B70F}" name="Грузопоток" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1246,7 +1246,7 @@
   <dimension ref="A1:C252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C252"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
